--- a/Data/dam_locations.xlsx
+++ b/Data/dam_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdityaG/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748C6B7C-2582-1545-8CEC-1F2048E73D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB2A410-AF4F-4F63-9B0F-5C9FBD6D2D99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A1E31D00-08C6-8844-9D26-7FC38016F049}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="17430" windowHeight="11820" xr2:uid="{A1E31D00-08C6-8844-9D26-7FC38016F049}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,17 +445,17 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>77.436679999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -477,7 +477,7 @@
         <v>73.417860000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -488,7 +488,7 @@
         <v>75.945696799999993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -499,7 +499,7 @@
         <v>73.750080999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -510,7 +510,7 @@
         <v>73.763176999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -521,7 +521,7 @@
         <v>73.757366000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -532,7 +532,7 @@
         <v>73.757397999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -543,7 +543,7 @@
         <v>73.814166999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -554,7 +554,7 @@
         <v>76.712209999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -565,7 +565,7 @@
         <v>74.609622000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -576,7 +576,7 @@
         <v>73.870740999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -587,7 +587,7 @@
         <v>73.818201999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -598,7 +598,7 @@
         <v>73.568540051417898</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -609,18 +609,18 @@
         <v>75.363035999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>20.47831</v>
+        <v>20.832733000000001</v>
       </c>
       <c r="C15">
-        <v>74.715884000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75.423867999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -631,7 +631,7 @@
         <v>73.511757000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -642,7 +642,7 @@
         <v>75.120279195443302</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -653,7 +653,7 @@
         <v>73.574045066681805</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -669,5 +669,6 @@
     <hyperlink ref="B3" r:id="rId1" display="https://geohack.toolforge.org/geohack.php?pagename=Hatnur_Dam&amp;params=21.0727972_N_75.9456968_E_type:landmark" xr:uid="{68981A55-CBA9-C84E-9702-2E710AD40612}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>